--- a/test_case_data/testCase.xlsx
+++ b/test_case_data/testCase.xlsx
@@ -196,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -214,6 +214,82 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,35 +310,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -284,6 +331,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -292,67 +346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +353,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -370,187 +370,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,30 +561,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,6 +575,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,26 +627,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,10 +669,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,133 +681,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,8 +1349,8 @@
   <sheetPr/>
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1826,7 +1826,6 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="2"/>
       <c r="H11" s="10"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1843,14 +1842,12 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="2"/>
       <c r="H12" s="10"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="11"/>
       <c r="M12" s="9"/>
-      <c r="N12" s="2"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
     </row>
@@ -1861,7 +1858,6 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
       <c r="H13" s="6"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>

--- a/test_case_data/testCase.xlsx
+++ b/test_case_data/testCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="155">
   <si>
     <t>注意事项：
 1.使用传值变量与取值代码取多个值时，请使用英文分号(;)隔开
@@ -32,6 +32,9 @@
     <t>测试用例名称</t>
   </si>
   <si>
+    <t>是否执行</t>
+  </si>
+  <si>
     <t>测试用例步骤</t>
   </si>
   <si>
@@ -155,7 +158,7 @@
     <t>/operation/getapplist/88/10</t>
   </si>
   <si>
-    <t>{'appId':'12522ec8-e616-44a7-8d79-fbe31327d4a6'}</t>
+    <t>{'isSuccess':True}</t>
   </si>
   <si>
     <t>STEP05</t>
@@ -167,15 +170,15 @@
     <t>{"appIdOrName": "","isDeleted": "0"}</t>
   </si>
   <si>
-    <t>{'isSuccess':True}</t>
-  </si>
-  <si>
     <t>STEP06</t>
   </si>
   <si>
     <t>查询正常应用跳转指定页面</t>
   </si>
   <si>
+    <t>appList</t>
+  </si>
+  <si>
     <t>STEP07</t>
   </si>
   <si>
@@ -194,9 +197,6 @@
     <t>登录运营平台，创建普通应用后删除</t>
   </si>
   <si>
-    <t>token</t>
-  </si>
-  <si>
     <t>创建普通应用</t>
   </si>
   <si>
@@ -206,15 +206,18 @@
     <t>{"IsEmptyApp":True,"AppLabel":"自动化测试${timestamp}","AppName":"autotest${timestamp}","TemplateCode":"","PhoneNumber":"18627598991"}</t>
   </si>
   <si>
+    <t>$.appId</t>
+  </si>
+  <si>
+    <t>查询新建的应用</t>
+  </si>
+  <si>
+    <t>{"appIdOrName": "${appId}","isDeleted": "1"}</t>
+  </si>
+  <si>
     <t>$..appId</t>
   </si>
   <si>
-    <t>查询新建的应用</t>
-  </si>
-  <si>
-    <t>{"appIdOrName": "${appId}","isDeleted": "1"}</t>
-  </si>
-  <si>
     <t>{"appId":"${appId}"}</t>
   </si>
   <si>
@@ -236,9 +239,15 @@
     <t>{"currentIndex":1,"pageSize":10,"templateName":"验证新建的模板应用自带两个用户域","publishStatus":"","isDeleted":"-1"}</t>
   </si>
   <si>
+    <t>{'templateName':'验证新建的模板应用自带两个用户域'}</t>
+  </si>
+  <si>
     <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"-1"}</t>
   </si>
   <si>
+    <t>templateList</t>
+  </si>
+  <si>
     <t>{"currentIndex":10,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"-1"}</t>
   </si>
   <si>
@@ -248,27 +257,48 @@
     <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"Published","isDeleted":"-1"}</t>
   </si>
   <si>
+    <t>{'publishStatus':'Published'}</t>
+  </si>
+  <si>
     <t>查询未发布的应用</t>
   </si>
   <si>
     <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"UnPublish","isDeleted":"-1"}</t>
   </si>
   <si>
+    <t>{'publishStatus':'UnPublish'}</t>
+  </si>
+  <si>
     <t>查询未初始化的应用</t>
   </si>
   <si>
     <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"UnInit","isDeleted":"-1"}</t>
   </si>
   <si>
+    <t>{'publishStatus':'UnInit'}</t>
+  </si>
+  <si>
     <t>查询删除状态为正常的应用</t>
   </si>
   <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"0"}</t>
+  </si>
+  <si>
+    <t>{'isDeleted':0}</t>
+  </si>
+  <si>
     <t>STEP09</t>
   </si>
   <si>
     <t>查询删除状态为已删除的应用</t>
   </si>
   <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"1"}</t>
+  </si>
+  <si>
+    <t>{'isDeleted':1}</t>
+  </si>
+  <si>
     <t>登录运营平台，新建模板应用</t>
   </si>
   <si>
@@ -284,7 +314,7 @@
     <t>TemplateCode</t>
   </si>
   <si>
-    <t>(.*)</t>
+    <t>^[A-Za-z0-9]+$</t>
   </si>
   <si>
     <t>获取一级行业id</t>
@@ -329,7 +359,7 @@
     <t>$.[0].name</t>
   </si>
   <si>
-    <t>{"dispalyName":"蓝色系"}</t>
+    <t>{'displayName':'蓝色系'}</t>
   </si>
   <si>
     <t>创建模板</t>
@@ -339,6 +369,93 @@
   </si>
   <si>
     <t>{"TemplateName":"自动化测试模板应用${timestamp}","TemplateCode":"${TemplateCode}","FirstIndustryId":"${FirstIndustryId}","IndustryId":"${IndustryId}","ColorSystemName":"${ColorSystemName}"}</t>
+  </si>
+  <si>
+    <t>查询已经创建好的模板应用</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"自动化测试模板应用${timestamp}","publishStatus":"","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>{'templateName':'自动化测试模板应用${timestamp}'}</t>
+  </si>
+  <si>
+    <t>登录运营平台，查询模块应用</t>
+  </si>
+  <si>
+    <t>查询所有模块应用第一页</t>
+  </si>
+  <si>
+    <t>/apps/v1/modules</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>moduleEntity</t>
+  </si>
+  <si>
+    <t>查询所有模块应用跳转指定页</t>
+  </si>
+  <si>
+    <t>{"pageindex":"5","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>搜索指定模块应用</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"初始化的模块应用","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>{'id':'662618f5-fc24-4cb7-ac6d-36d1685c6faf'}</t>
+  </si>
+  <si>
+    <t>获取模块标签</t>
+  </si>
+  <si>
+    <t>/apps/v1/moduletagswhole</t>
+  </si>
+  <si>
+    <t>tagId</t>
+  </si>
+  <si>
+    <t>$.moduleTagEntity.[0].tagId</t>
+  </si>
+  <si>
+    <t>{'tagName':'901电商'}</t>
+  </si>
+  <si>
+    <t>搜索指定标签下的模块应用</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"${tagId}","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>{'moduleName':'mq测试模块911'}</t>
+  </si>
+  <si>
+    <t>获取模块分类</t>
+  </si>
+  <si>
+    <t>/apps/v1/modulecategorys</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>$.[2].categoryId</t>
+  </si>
+  <si>
+    <t>{'name':'zf防护'}</t>
+  </si>
+  <si>
+    <t>搜索指定分类下的模块应用</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"${categoryId}"}</t>
+  </si>
+  <si>
+    <t>{'moduleName':'5435456'}</t>
   </si>
   <si>
     <t>登录运营平台后免登指定应用</t>
@@ -411,6 +528,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -442,8 +566,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,14 +584,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,9 +597,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,40 +627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,6 +641,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -550,7 +667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +685,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,13 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,43 +739,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,24 +775,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -688,7 +787,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,37 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,11 +922,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,10 +954,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -843,7 +964,33 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -863,36 +1010,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -901,149 +1018,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,29 +1176,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1446,128 +1548,128 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1582,29 +1684,33 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="14.1111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.77777777777778" style="2" customWidth="1"/>
-    <col min="6" max="8" width="16.3333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.77777777777778" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7777777777778" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.7777777777778" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="13" max="14" width="9.77777777777778" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.7777777777778" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.77777777777778" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.77777777777778" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.7777777777778" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.7777777777778" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.66666666666667" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.7777777777778" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.77777777777778" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1617,10 +1723,10 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1653,16 +1759,19 @@
       <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" ht="72" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="72" spans="1:17">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1670,19 +1779,19 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="b">
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1700,240 +1809,243 @@
       <c r="P2" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" ht="43.2" spans="3:16">
-      <c r="C3" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="3" ht="43.2" spans="4:17">
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>28</v>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="3:16">
-      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="4" ht="43.2" spans="4:17">
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" ht="100.8" spans="3:16">
-      <c r="C5" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="5" ht="43.2" spans="4:17">
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="3:16">
-      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="6" ht="43.2" spans="4:17">
       <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="4:17">
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" ht="43.2" spans="3:16">
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="3:16">
-      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="8" ht="43.2" spans="4:17">
       <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" ht="57.6" spans="3:16">
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" ht="57.6" spans="4:17">
       <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="72" spans="1:16">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="72" spans="1:17">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1941,19 +2053,19 @@
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2" t="b">
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1966,136 +2078,142 @@
         <v>27</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="129.6" spans="1:16">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="129.6" spans="1:17">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" ht="43.2" spans="1:16">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:17">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="57.6" spans="1:16">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" ht="57.6" spans="1:15">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>21</v>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" ht="72" spans="1:16">
+      <c r="P13" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" ht="72" spans="1:17">
       <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -2103,19 +2221,19 @@
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="b">
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -2128,285 +2246,288 @@
         <v>27</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" ht="86.4" spans="1:16">
-      <c r="A15" s="6"/>
-      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="15" ht="100.8" spans="1:17">
+      <c r="A15" s="5"/>
       <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>28</v>
+      <c r="K15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" ht="57.6" spans="1:16">
-      <c r="A16" s="6"/>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" ht="57.6" spans="1:17">
+      <c r="A16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="57.6" spans="1:16">
-      <c r="A17" s="6"/>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" ht="57.6" spans="1:17">
+      <c r="A17" s="5"/>
       <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" ht="57.6" spans="1:16">
-      <c r="A18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" ht="57.6" spans="1:17">
+      <c r="A18" s="5"/>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>76</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" ht="57.6" spans="1:16">
-      <c r="A19" s="6"/>
-      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" ht="57.6" spans="1:17">
+      <c r="A19" s="5"/>
+      <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" ht="57.6" spans="1:16">
-      <c r="A20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" ht="57.6" spans="1:17">
+      <c r="A20" s="5"/>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>82</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" ht="57.6" spans="1:16">
-      <c r="A21" s="6"/>
-      <c r="C21" s="2" t="s">
-        <v>54</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" ht="57.6" spans="1:17">
+      <c r="A21" s="5"/>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" ht="57.6" spans="1:16">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" ht="57.6" spans="1:17">
       <c r="A22" s="6"/>
-      <c r="C22" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="72" spans="1:16">
-      <c r="A23" s="10">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" ht="72" spans="1:17">
+      <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
+      <c r="B23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
@@ -2414,19 +2535,19 @@
       <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="2" t="b">
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -2439,218 +2560,223 @@
         <v>27</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" ht="43.2" spans="1:15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="2" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="24" ht="43.2" spans="1:16">
+      <c r="A24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="57.6" spans="1:17">
+      <c r="A25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" ht="86.4" spans="1:17">
+      <c r="A26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" ht="43.2" spans="1:17">
+      <c r="A27" s="5"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" ht="187.2" spans="1:16">
+      <c r="A28" s="5"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="57.6" spans="1:16">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" ht="86.4" spans="1:16">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" ht="43.2" spans="1:16">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" ht="187.2" spans="1:11">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>21</v>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" ht="72" spans="1:15">
-      <c r="A29" s="2">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="100.8" spans="1:17">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>116</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>22</v>
@@ -2658,164 +2784,529 @@
       <c r="I29" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="J29" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="K29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" ht="43.2" spans="3:15">
-      <c r="C30" s="2" t="s">
-        <v>30</v>
+      <c r="P29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" ht="72" spans="1:17">
+      <c r="A30" s="4">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="7" t="b">
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G30" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="H30" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="72" spans="1:17">
+      <c r="A31" s="5"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" ht="57.6" spans="3:15">
-      <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" ht="72" spans="1:17">
+      <c r="A32" s="5"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" ht="100.8" spans="1:17">
+      <c r="A33" s="5"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" ht="43.2" spans="1:17">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" ht="86.4" spans="1:17">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" ht="43.2" spans="1:17">
+      <c r="A36" s="5"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" ht="57.6" spans="1:17">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" ht="72" spans="1:16">
+      <c r="A38" s="4">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" ht="57.6" spans="3:15">
-      <c r="C32" s="2" t="s">
+      <c r="G38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" ht="43.2" spans="1:16">
+      <c r="A39" s="5"/>
+      <c r="D39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="3" t="b">
+      <c r="O39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" ht="57.6" spans="1:16">
+      <c r="A40" s="5"/>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" ht="57.6" spans="1:16">
+      <c r="A41" s="6"/>
+      <c r="D41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="H41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>39</v>
+      <c r="O41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C38:C41"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F9 F10 F11 F12 F13 F14 F15 F16 F23 F24 F29 F30 F31 F32 F5:F6 F7:F8 F17:F22 F25:F28 F33:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M10 M11 M12 M13 M14 M15 M16 M17 M23 M24 M29 M30 M31 M32 M33 M34 M38 M39 M40 M41 M25:M28 M35:M37 M42:M1048576">
+      <formula1>"json取值,正则取值,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H9 H10 H11 H14 H15 H16 H17 H23 H24 H29 H30 H31 H32 H33 H34 H35 H36 H37 H7:H8 H12:H13 H18:H22 H25:H28 H38:H41 H42:H1048576">
+      <formula1>"Operation,Admin,Design"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F9 F10 F11 F12 F13 F14 F15 F16 F17 F23 F24 F29 F30 F31 F32 F33 F34 F38 F39 F40 F41 F7:F8 F18:F22 F25:F28 F35:F37 F42:F1048576">
+      <formula1>"GET,POST,PUT,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G9 G10 G11 G12 G13 G14 G15 G16 G23 G24 C29 G29 C30 G30 C31 G31 C32 G32 C33 G33 C34 G34 C35 C36 C37 G38 G39 G40 G41 C2:C28 C38:C1048576 G5:G6 G7:G8 G17:G22 G25:G28 G35:G37 G42:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E3 E4 E5 E6 E9 E10 E11 E12 E13 E14 E15 E16 E17 E23 E24 E29 E30 E31 E32 E7:E8 E18:E22 E25:E28 E33:E1048576">
-      <formula1>"GET,POST,PUT,DELETE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G5 G6 G9 G10 G11 G14 G15 G16 G17 G23 G24 G7:G8 G12:G13 G18:G22 G25:G28 G29:G32 G33:G1048576">
-      <formula1>"Operation,Admin,Design"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H9 H10 H11 H14 H15 H16 H17 H23 H24 H29 H7:H8 H12:H13 H18:H22 H25:H28 H30:H32 H33:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I9 I10 I11 I14 I15 I16 I17 I23 I24 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I7:I8 I12:I13 I18:I22 I25:I28 I39:I41 I42:I1048576">
       <formula1>"Test,Aliyun,tianyiyun,tengxunyun,renshe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L3 L4 L5 L10 L11 L12 L13 L14 L15 L16 L17 L23 L24 L29 L30 L31 L32 L25:L28 L33:L1048576">
-      <formula1>"json取值,正则取值,无"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O3 O4 O5 O6 O7 O8 O9 O10 O11 O12 O13 O14 O15 O16 O17 O18 O19 O20 O21 O22 O23 O24 O29 O30 O31 O32 O25:O28 O33:O1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P19 P20 P21 P22 P23 P24 P29 P30 P31 P32 P33 P34 P35 P36 P37 P38 P39 P40 P41 P25:P28 P42:P1048576">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test_case_data/testCase.xlsx
+++ b/test_case_data/testCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="164">
   <si>
     <t>注意事项：
 1.使用传值变量与取值代码取多个值时，请使用英文分号(;)隔开
@@ -458,6 +458,33 @@
     <t>{'moduleName':'5435456'}</t>
   </si>
   <si>
+    <t>登陆运营平台，新建模块应用</t>
+  </si>
+  <si>
+    <t>创建模块应用</t>
+  </si>
+  <si>
+    <t>/apps/v1/addmodule/</t>
+  </si>
+  <si>
+    <t>{"moduleName":"自模${timestamp}","moduleNameSpace":"ns${timestamp}","moduleCode":"zm${timestamp}","moduleDescription":"description","moduleTagIds":["${tagId}"],"moduleCategoryId":"${categoryId}"}</t>
+  </si>
+  <si>
+    <t>moduleId</t>
+  </si>
+  <si>
+    <t>[\s\S]</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"自模${timestamp}","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>{'modulename':'自模${timestamp}'}</t>
+  </si>
+  <si>
     <t>登录运营平台后免登指定应用</t>
   </si>
   <si>
@@ -493,10 +520,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -515,13 +542,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -535,6 +555,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -543,32 +586,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,9 +601,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,7 +632,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,34 +669,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -667,31 +694,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,13 +736,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +772,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,109 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,22 +944,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,43 +993,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,6 +1028,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1018,10 +1045,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,7 +1057,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1039,128 +1066,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1182,8 +1209,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1548,128 +1581,128 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1684,10 +1717,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2523,10 +2556,10 @@
       <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="7" t="b">
+      <c r="C23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2571,8 +2604,6 @@
     </row>
     <row r="24" ht="43.2" spans="1:16">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
       <c r="D24" s="2" t="s">
         <v>31</v>
       </c>
@@ -2609,8 +2640,6 @@
     </row>
     <row r="25" ht="57.6" spans="1:17">
       <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
       <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
@@ -2650,8 +2679,6 @@
     </row>
     <row r="26" ht="86.4" spans="1:17">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
       <c r="D26" s="2" t="s">
         <v>42</v>
       </c>
@@ -2691,8 +2718,6 @@
     </row>
     <row r="27" ht="43.2" spans="1:17">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
       <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2732,8 +2757,6 @@
     </row>
     <row r="28" ht="187.2" spans="1:16">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
       <c r="D28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2764,8 +2787,6 @@
     </row>
     <row r="29" ht="100.8" spans="1:17">
       <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
       <c r="D29" s="2" t="s">
         <v>52</v>
       </c>
@@ -2804,11 +2825,11 @@
       <c r="A30" s="4">
         <v>5</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="7" t="b">
-        <v>1</v>
+      <c r="C30" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
@@ -2852,8 +2873,6 @@
     </row>
     <row r="31" ht="72" spans="1:17">
       <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
       <c r="D31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2887,8 +2906,6 @@
     </row>
     <row r="32" ht="72" spans="1:17">
       <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
       <c r="D32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2922,8 +2939,6 @@
     </row>
     <row r="33" ht="100.8" spans="1:17">
       <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
       <c r="D33" s="2" t="s">
         <v>42</v>
       </c>
@@ -2957,8 +2972,6 @@
     </row>
     <row r="34" ht="43.2" spans="1:17">
       <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
       <c r="D34" s="2" t="s">
         <v>46</v>
       </c>
@@ -2998,8 +3011,6 @@
     </row>
     <row r="35" ht="86.4" spans="1:17">
       <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
       <c r="D35" s="2" t="s">
         <v>49</v>
       </c>
@@ -3033,8 +3044,6 @@
     </row>
     <row r="36" ht="43.2" spans="1:17">
       <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
       <c r="D36" s="2" t="s">
         <v>52</v>
       </c>
@@ -3074,8 +3083,6 @@
     </row>
     <row r="37" ht="57.6" spans="1:17">
       <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
       <c r="D37" s="2" t="s">
         <v>55</v>
       </c>
@@ -3107,15 +3114,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" ht="72" spans="1:16">
-      <c r="A38" s="4">
+    <row r="38" ht="72" spans="1:17">
+      <c r="A38" s="7">
         <v>6</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="2" t="b">
-        <v>0</v>
+      <c r="C38" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
@@ -3151,16 +3158,21 @@
         <v>28</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" ht="43.2" spans="1:16">
-      <c r="A39" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" ht="43.2" spans="1:17">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>33</v>
@@ -3175,31 +3187,33 @@
         <v>23</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" ht="57.6" spans="1:16">
-      <c r="A40" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" ht="43.2" spans="1:17">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>33</v>
@@ -3214,99 +3228,306 @@
         <v>23</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" ht="57.6" spans="1:16">
-      <c r="A41" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" ht="187.2" spans="1:17">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="Q41" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" ht="100.8" spans="1:17">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" ht="72" spans="1:16">
+      <c r="A43" s="4">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G41" s="3" t="b">
+      <c r="G43" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3" t="s">
+      <c r="H43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P43" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" ht="43.2" spans="1:16">
+      <c r="A44" s="5"/>
+      <c r="D44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" ht="57.6" spans="1:16">
+      <c r="A45" s="5"/>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" ht="57.6" spans="1:16">
+      <c r="A46" s="6"/>
+      <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="21">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A22"/>
     <mergeCell ref="A23:A29"/>
     <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B22"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B46"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="C23:C29"/>
     <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C46"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M10 M11 M12 M13 M14 M15 M16 M17 M23 M24 M29 M30 M31 M32 M33 M34 M38 M39 M40 M41 M25:M28 M35:M37 M42:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F9 F10 F11 F12 F13 F14 F15 F16 F17 F23 F24 F29 F30 F31 F32 F33 F34 F38 F39 F40 F41 F42 F43 F44 F45 F46 F7:F8 F18:F22 F25:F28 F35:F37 F47:F1048576">
+      <formula1>"GET,POST,PUT,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G9 G10 G11 G12 G13 G14 G15 G16 G23 G24 C29 G29 C30 G30 C31 G31 C32 G32 C33 G33 C34 G34 C35 C36 C37 C38 G38 G39 C40 G40 G41 G42 G43 G44 G45 G46 C2:C28 C41:C42 C43:C46 C47:C1048576 G5:G6 G7:G8 G17:G22 G25:G28 G35:G37 G47:G1048576">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H9 H10 H11 H14 H15 H16 H17 H23 H24 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H7:H8 H12:H13 H18:H22 H25:H28 H43:H46 H47:H1048576">
+      <formula1>"Operation,Admin,Design"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M10 M11 M12 M13 M14 M15 M16 M17 M23 M24 M29 M30 M31 M32 M33 M34 M38 M39 M40 M41 M42 M43 M44 M45 M46 M25:M28 M35:M37 M47:M1048576">
       <formula1>"json取值,正则取值,无"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H9 H10 H11 H14 H15 H16 H17 H23 H24 H29 H30 H31 H32 H33 H34 H35 H36 H37 H7:H8 H12:H13 H18:H22 H25:H28 H38:H41 H42:H1048576">
-      <formula1>"Operation,Admin,Design"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F9 F10 F11 F12 F13 F14 F15 F16 F17 F23 F24 F29 F30 F31 F32 F33 F34 F38 F39 F40 F41 F7:F8 F18:F22 F25:F28 F35:F37 F42:F1048576">
-      <formula1>"GET,POST,PUT,DELETE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G9 G10 G11 G12 G13 G14 G15 G16 G23 G24 C29 G29 C30 G30 C31 G31 C32 G32 C33 G33 C34 G34 C35 C36 C37 G38 G39 G40 G41 C2:C28 C38:C1048576 G5:G6 G7:G8 G17:G22 G25:G28 G35:G37 G42:G1048576">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I9 I10 I11 I14 I15 I16 I17 I23 I24 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I7:I8 I12:I13 I18:I22 I25:I28 I39:I41 I42:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I9 I10 I11 I14 I15 I16 I17 I23 I24 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I7:I8 I12:I13 I18:I22 I25:I28 I44:I46 I47:I1048576">
       <formula1>"Test,Aliyun,tianyiyun,tengxunyun,renshe"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P19 P20 P21 P22 P23 P24 P29 P30 P31 P32 P33 P34 P35 P36 P37 P38 P39 P40 P41 P25:P28 P42:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P19 P20 P21 P22 P23 P24 P29 P30 P31 P32 P33 P34 P35 P36 P37 P38 P39 P40 P41 P42 P43 P44 P45 P46 P25:P28 P47:P1048576">
       <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
   </dataValidations>

--- a/test_case_data/testCase.xlsx
+++ b/test_case_data/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9564" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="254">
   <si>
     <t>注意事项：
 1.使用传值变量与取值代码取多个值时，请使用英文分号(;)隔开
@@ -128,369 +128,627 @@
     <t>/operation/getapplist/1/10</t>
   </si>
   <si>
+    <t>{"appIdOrName":"测试测试","isDeleted": "-1"}</t>
+  </si>
+  <si>
+    <t>{'label':'测试测试'}</t>
+  </si>
+  <si>
+    <t>STEP03</t>
+  </si>
+  <si>
+    <t>查询第一页全部应用</t>
+  </si>
+  <si>
+    <t>{"appIdOrName": "","isDeleted": "-1"}</t>
+  </si>
+  <si>
+    <t>json键是否存在</t>
+  </si>
+  <si>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>STEP04</t>
+  </si>
+  <si>
+    <t>查询全部应用跳转指定页面</t>
+  </si>
+  <si>
+    <t>/operation/getapplist/88/10</t>
+  </si>
+  <si>
+    <t>{'isSuccess':True}</t>
+  </si>
+  <si>
+    <t>STEP05</t>
+  </si>
+  <si>
+    <t>查询正常应用第一页</t>
+  </si>
+  <si>
+    <t>{"appIdOrName": "","isDeleted": "0"}</t>
+  </si>
+  <si>
+    <t>STEP06</t>
+  </si>
+  <si>
+    <t>查询正常应用跳转指定页面</t>
+  </si>
+  <si>
+    <t>appList</t>
+  </si>
+  <si>
+    <t>STEP07</t>
+  </si>
+  <si>
+    <t>查询已删除应用第一页</t>
+  </si>
+  <si>
+    <t>{"appIdOrName": "","isDeleted": "1"}</t>
+  </si>
+  <si>
+    <t>STEP08</t>
+  </si>
+  <si>
+    <t>查询已删除应用跳转指定页面</t>
+  </si>
+  <si>
+    <t>登录运营平台，创建普通应用，编辑、设置责任人、复制、升级为模板后删除</t>
+  </si>
+  <si>
+    <t>创建普通应用</t>
+  </si>
+  <si>
+    <t>/operation/createappbytemplate</t>
+  </si>
+  <si>
+    <t>{"IsEmptyApp":True,"AppLabel":"自动化测试${timestamp}","AppName":"autotest${timestamp}","TemplateCode":"","PhoneNumber":"18627598991"}</t>
+  </si>
+  <si>
+    <t>$.appId</t>
+  </si>
+  <si>
+    <t>查询新建的应用</t>
+  </si>
+  <si>
+    <t>{"appIdOrName": "${appId}","isDeleted": "1"}</t>
+  </si>
+  <si>
+    <t>$.appList.[0].appId</t>
+  </si>
+  <si>
+    <t>{"appId":"${appId}"}</t>
+  </si>
+  <si>
+    <t>编辑新建的应用</t>
+  </si>
+  <si>
+    <t>/operation/editapp</t>
+  </si>
+  <si>
+    <t>{"AppId":"${appId}","Label":"自动化测试${timestamp}改名","Mobile":"18627598990"}</t>
+  </si>
+  <si>
+    <t>{'message':'编辑应用成功'}</t>
+  </si>
+  <si>
+    <t>获取应用下的角色</t>
+  </si>
+  <si>
+    <t>/operation/adminrole/list</t>
+  </si>
+  <si>
+    <t>{"appid":"${appId}"}</t>
+  </si>
+  <si>
+    <t>adminRoleId</t>
+  </si>
+  <si>
+    <t>$..id</t>
+  </si>
+  <si>
+    <t>{"name":"应用管理员"}</t>
+  </si>
+  <si>
+    <t>获取部门树</t>
+  </si>
+  <si>
+    <t>/department/getdepartmenttreerole</t>
+  </si>
+  <si>
+    <t>{"enterpriseid":"5ded90ba-446c-4c3f-9543-9dd273ea4bb2"}</t>
+  </si>
+  <si>
+    <t>departMentId</t>
+  </si>
+  <si>
+    <t>$.departmentlist.[0].children.[0].id</t>
+  </si>
+  <si>
+    <t>{"label":"湖南云畅网络科技有限公司"}</t>
+  </si>
+  <si>
+    <t>获取部门下人员树</t>
+  </si>
+  <si>
+    <t>/user/getenterprisewholelist</t>
+  </si>
+  <si>
+    <t>personId;nickName</t>
+  </si>
+  <si>
+    <t>$.[28].id;$.[28].nickName</t>
+  </si>
+  <si>
+    <t>{"nickName":"周唯杰测试"}</t>
+  </si>
+  <si>
+    <t>设置应用责任人</t>
+  </si>
+  <si>
+    <t>/operation/setapppersonliable</t>
+  </si>
+  <si>
+    <t>{"appId":"${appId}","personLiableModel":[{"adminRoleId":["${adminRoleId}"],"appPersonLiableType":[{"label":"周唯杰","id":"2beba0bf-45c5-4240-945e-0da07043f999","type":"1","departmentId":"${departMentId}","isShow":True,"isChecked":True},{"label":"${nickName}","id":"${personId}","type":"1","departmentId":"${departMentId}","isShow":True,"isChecked":True}]}]}</t>
+  </si>
+  <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
+    <t>[^/]+(?!.*/)</t>
+  </si>
+  <si>
+    <t>STEP09</t>
+  </si>
+  <si>
+    <t>获取模板code</t>
+  </si>
+  <si>
+    <t>/operation/template/tcode</t>
+  </si>
+  <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>TemplateCode</t>
+  </si>
+  <si>
+    <t>^[A-Za-z0-9]+$</t>
+  </si>
+  <si>
+    <t>STEP10</t>
+  </si>
+  <si>
+    <t>获取行业id</t>
+  </si>
+  <si>
+    <t>/operation/template/industry</t>
+  </si>
+  <si>
+    <t>FirstIndustryId;SecondIndustryId</t>
+  </si>
+  <si>
+    <t>$.firstIndustryList[0].id;$.secondIndustryList[0].id</t>
+  </si>
+  <si>
+    <t>firstIndustryList</t>
+  </si>
+  <si>
+    <t>STEP11</t>
+  </si>
+  <si>
+    <t>获取颜色名称</t>
+  </si>
+  <si>
+    <t>/operation/template/color</t>
+  </si>
+  <si>
+    <t>colorName</t>
+  </si>
+  <si>
+    <t>$.[0].name</t>
+  </si>
+  <si>
+    <t>{"displayName":"蓝色系"}</t>
+  </si>
+  <si>
+    <t>STEP12</t>
+  </si>
+  <si>
+    <t>升级为模板</t>
+  </si>
+  <si>
+    <t>/operation/upgradeapptotemplate</t>
+  </si>
+  <si>
+    <t>{"AppId":"${appId}","TemplateName":"应用升级模板${timestamp}","TemplateCode":"${TemplateCode}","FirstIndustryId":"${FirstIndustryId}","IndustryId":"${SecondIndustryId}","ColorSystemName":"${colorName}"}</t>
+  </si>
+  <si>
+    <t>STEP13</t>
+  </si>
+  <si>
+    <t>复制新建的应用</t>
+  </si>
+  <si>
+    <t>/operation/copyapp</t>
+  </si>
+  <si>
+    <t>{"AppLabel":"复制自动化测试${timestamp}","AppName":"copyautotest${timestamp}","SouceAppId":"${appId}","Mobile":"18627598991"}</t>
+  </si>
+  <si>
+    <t>copyAppId</t>
+  </si>
+  <si>
+    <t>{'message':'复制应用成功'}</t>
+  </si>
+  <si>
+    <t>STEP14</t>
+  </si>
+  <si>
+    <t>删除新建的应用</t>
+  </si>
+  <si>
+    <t>/operation/deleteapp/${appId}</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>STEP15</t>
+  </si>
+  <si>
+    <t>删除复制的应用</t>
+  </si>
+  <si>
+    <t>/operation/deleteapp/${copyAppId}</t>
+  </si>
+  <si>
+    <t>登录运营平台，查询模板应用</t>
+  </si>
+  <si>
+    <t>/operation/template/list</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"验证新建的模板应用自带两个用户域","publishStatus":"","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>{'templateName':'验证新建的模板应用自带两个用户域'}</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>templateList</t>
+  </si>
+  <si>
+    <t>{"currentIndex":10,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>查询已发布的应用</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"Published","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>{'publishStatus':'Published'}</t>
+  </si>
+  <si>
+    <t>查询未发布的应用</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"UnPublish","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>{'publishStatus':'UnPublish'}</t>
+  </si>
+  <si>
+    <t>查询未初始化的应用</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"UnInit","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>{'publishStatus':'UnInit'}</t>
+  </si>
+  <si>
+    <t>查询删除状态为正常的应用</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"0"}</t>
+  </si>
+  <si>
+    <t>{'isDeleted':0}</t>
+  </si>
+  <si>
+    <t>查询删除状态为已删除的应用</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"1"}</t>
+  </si>
+  <si>
+    <t>{'isDeleted':1}</t>
+  </si>
+  <si>
+    <t>登录运营平台，新建模板应用</t>
+  </si>
+  <si>
+    <t>获取一级行业id</t>
+  </si>
+  <si>
+    <t>FirstIndustryId</t>
+  </si>
+  <si>
+    <t>$.firstIndustryList[0].id</t>
+  </si>
+  <si>
+    <t>获取二级行业id</t>
+  </si>
+  <si>
+    <t>/operation/template/industry/${FirstIndustryId}</t>
+  </si>
+  <si>
+    <t>IndustryId</t>
+  </si>
+  <si>
+    <t>$.[0].id</t>
+  </si>
+  <si>
+    <t>{"parentId":"${FirstIndustryId}"}</t>
+  </si>
+  <si>
+    <t>获取色系id</t>
+  </si>
+  <si>
+    <t>ColorSystemName</t>
+  </si>
+  <si>
+    <t>{'displayName':'蓝色系'}</t>
+  </si>
+  <si>
+    <t>创建模板</t>
+  </si>
+  <si>
+    <t>/operation/template/create</t>
+  </si>
+  <si>
+    <t>{"TemplateName":"自动化测试模板应用${timestamp}","TemplateCode":"${TemplateCode}","FirstIndustryId":"${FirstIndustryId}","IndustryId":"${IndustryId}","ColorSystemName":"${ColorSystemName}"}</t>
+  </si>
+  <si>
+    <t>查询创建好的模板</t>
+  </si>
+  <si>
+    <t>{"currentIndex":1,"pageSize":10,"templateName":"自动化测试模板应用","publishStatus":"","isDeleted":"-1"}</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>{'colorSystemName':'${ColorSystemName}'}</t>
+  </si>
+  <si>
+    <t>编辑模板</t>
+  </si>
+  <si>
+    <t>/operation/template/update</t>
+  </si>
+  <si>
+    <t>{"Id":"${Id}","TemplateName":"模板应用${timestamp}改名","FirstIndustryId":"5e9c0f33-f346-4bb3-bc33-7be5131ef719","IndustryId":"7a6d543a-a6f7-4477-b2cc-89828d011967","ColorSystemName":"green"}</t>
+  </si>
+  <si>
+    <t>templateId;templateCode;templateAppId</t>
+  </si>
+  <si>
+    <t>$.templateList.[0].id;$.templateList.[0].templateCode;$.templateList.[0].templateAppId</t>
+  </si>
+  <si>
+    <t>发布模板</t>
+  </si>
+  <si>
+    <t>/operation/template/publish</t>
+  </si>
+  <si>
+    <t>{"Id":"${templateId}","TemplateCode":"${templateCode}","TemplateAppId":"${templateAppId}"}</t>
+  </si>
+  <si>
+    <t>删除新建的模板</t>
+  </si>
+  <si>
+    <t>/operation/deltemplate/${Id}</t>
+  </si>
+  <si>
+    <t>登录运营平台，查询模块应用</t>
+  </si>
+  <si>
+    <t>查询所有模块应用第一页</t>
+  </si>
+  <si>
+    <t>/apps/v1/modules</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>moduleEntity</t>
+  </si>
+  <si>
+    <t>查询所有模块应用跳转指定页</t>
+  </si>
+  <si>
+    <t>{"pageindex":"5","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>搜索指定模块应用</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"初始化的模块应用","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>{'id':'662618f5-fc24-4cb7-ac6d-36d1685c6faf'}</t>
+  </si>
+  <si>
+    <t>获取模块标签</t>
+  </si>
+  <si>
+    <t>/apps/v1/moduletagswhole</t>
+  </si>
+  <si>
+    <t>tagId</t>
+  </si>
+  <si>
+    <t>$.moduleTagEntity.[0].tagId</t>
+  </si>
+  <si>
+    <t>{'tagName':'901电商'}</t>
+  </si>
+  <si>
+    <t>搜索指定标签下的模块应用</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"${tagId}","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
+  </si>
+  <si>
+    <t>{'moduleName':'mq测试模块911'}</t>
+  </si>
+  <si>
+    <t>获取模块分类</t>
+  </si>
+  <si>
+    <t>/apps/v1/modulecategorys</t>
+  </si>
+  <si>
+    <t>categoryId</t>
+  </si>
+  <si>
+    <t>$.[2].categoryId</t>
+  </si>
+  <si>
+    <t>{'name':'zf防护'}</t>
+  </si>
+  <si>
+    <t>搜索指定分类下的模块应用</t>
+  </si>
+  <si>
+    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"${categoryId}"}</t>
+  </si>
+  <si>
+    <t>{'moduleName':'5435456'}</t>
+  </si>
+  <si>
+    <t>登陆运营平台，新建模块应用</t>
+  </si>
+  <si>
+    <t>获取标签</t>
+  </si>
+  <si>
+    <t>新建模块</t>
+  </si>
+  <si>
+    <t>/apps/v1/modulecategorys/</t>
+  </si>
+  <si>
+    <t>{"categoryName":"自动化测试分类${timestamp}","parentId":"00000000-0000-0000-0000-000000000000","CategoryId":""}</t>
+  </si>
+  <si>
+    <t>获取新建的模块id</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>$..categoryId</t>
+  </si>
+  <si>
+    <t>编辑模块</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/apps/v1/modulecategorys/${CategoryId}</t>
+  </si>
+  <si>
+    <t>{"CategoryName":"自动化测试分类${timestamp}改名"}</t>
+  </si>
+  <si>
+    <t>删除模块</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>新建标签</t>
+  </si>
+  <si>
+    <t>/apps/v1/moduletag/</t>
+  </si>
+  <si>
+    <t>{"TagName":"自动化测试标签${timestamp}","TagDescription":"自动化测试标签${timestamp}","IsActive":True}</t>
+  </si>
+  <si>
+    <t>查询新建标签信息</t>
+  </si>
+  <si>
+    <t>/apps/v1/moduletags</t>
+  </si>
+  <si>
+    <t>{"pagesize":"10","pageindex":"1"}</t>
+  </si>
+  <si>
+    <t>$.moduleTagEntity.[0].id</t>
+  </si>
+  <si>
+    <t>{"tagName":"901电商"}</t>
+  </si>
+  <si>
+    <t>编辑标签</t>
+  </si>
+  <si>
+    <t>/apps/v1/moduletag/${Id}</t>
+  </si>
+  <si>
+    <t>{"TagName":"自动化测试标签${timestamp}改名","TagDescription":"自动化测试标签${timestamp}改描述","IsActive":True}</t>
+  </si>
+  <si>
+    <t>停用标签</t>
+  </si>
+  <si>
+    <t>/apps/v1/moduletagactive/${Id}</t>
+  </si>
+  <si>
+    <t>{"IsActive":False}</t>
+  </si>
+  <si>
+    <t>启用标签</t>
+  </si>
+  <si>
+    <t>{"IsActive":True}</t>
+  </si>
+  <si>
+    <t>删除标签</t>
+  </si>
+  <si>
+    <t>创建模块应用</t>
+  </si>
+  <si>
+    <t>/apps/v1/addmodule/</t>
+  </si>
+  <si>
+    <t>{"moduleName":"自模${timestamp}","moduleNameSpace":"ns${timestamp}","moduleCode":"zm${timestamp}","moduleDescription":"description","moduleTagIds":["${tagId}"],"moduleCategoryId":"${categoryId}"}</t>
+  </si>
+  <si>
+    <t>moduleId</t>
+  </si>
+  <si>
+    <t>登录运营平台后免登指定应用</t>
+  </si>
+  <si>
     <t>{"appIdOrName": "测试测试","isDeleted": "-1"}</t>
   </si>
   <si>
-    <t>{'label':'测试测试'}</t>
-  </si>
-  <si>
-    <t>STEP03</t>
-  </si>
-  <si>
-    <t>查询第一页全部应用</t>
-  </si>
-  <si>
-    <t>{"appIdOrName": "","isDeleted": "-1"}</t>
-  </si>
-  <si>
-    <t>json键是否存在</t>
-  </si>
-  <si>
-    <t>appId</t>
-  </si>
-  <si>
-    <t>STEP04</t>
-  </si>
-  <si>
-    <t>查询全部应用跳转指定页面</t>
-  </si>
-  <si>
-    <t>/operation/getapplist/88/10</t>
-  </si>
-  <si>
-    <t>{'isSuccess':True}</t>
-  </si>
-  <si>
-    <t>STEP05</t>
-  </si>
-  <si>
-    <t>查询正常应用第一页</t>
-  </si>
-  <si>
-    <t>{"appIdOrName": "","isDeleted": "0"}</t>
-  </si>
-  <si>
-    <t>STEP06</t>
-  </si>
-  <si>
-    <t>查询正常应用跳转指定页面</t>
-  </si>
-  <si>
-    <t>appList</t>
-  </si>
-  <si>
-    <t>STEP07</t>
-  </si>
-  <si>
-    <t>查询已删除应用第一页</t>
-  </si>
-  <si>
-    <t>{"appIdOrName": "","isDeleted": "1"}</t>
-  </si>
-  <si>
-    <t>STEP08</t>
-  </si>
-  <si>
-    <t>查询已删除应用跳转指定页面</t>
-  </si>
-  <si>
-    <t>登录运营平台，创建普通应用后删除</t>
-  </si>
-  <si>
-    <t>创建普通应用</t>
-  </si>
-  <si>
-    <t>/operation/createappbytemplate</t>
-  </si>
-  <si>
-    <t>{"IsEmptyApp":True,"AppLabel":"自动化测试${timestamp}","AppName":"autotest${timestamp}","TemplateCode":"","PhoneNumber":"18627598991"}</t>
-  </si>
-  <si>
-    <t>$.appId</t>
-  </si>
-  <si>
-    <t>查询新建的应用</t>
-  </si>
-  <si>
-    <t>{"appIdOrName": "${appId}","isDeleted": "1"}</t>
-  </si>
-  <si>
     <t>$..appId</t>
   </si>
   <si>
-    <t>{"appId":"${appId}"}</t>
-  </si>
-  <si>
-    <t>删除新建的应用</t>
-  </si>
-  <si>
-    <t>/operation/deleteapp/${appId}</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>登录运营平台，查询模板应用</t>
-  </si>
-  <si>
-    <t>/operation/template/list</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"验证新建的模板应用自带两个用户域","publishStatus":"","isDeleted":"-1"}</t>
-  </si>
-  <si>
-    <t>{'templateName':'验证新建的模板应用自带两个用户域'}</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"-1"}</t>
-  </si>
-  <si>
-    <t>templateList</t>
-  </si>
-  <si>
-    <t>{"currentIndex":10,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"-1"}</t>
-  </si>
-  <si>
-    <t>查询已发布的应用</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"Published","isDeleted":"-1"}</t>
-  </si>
-  <si>
-    <t>{'publishStatus':'Published'}</t>
-  </si>
-  <si>
-    <t>查询未发布的应用</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"UnPublish","isDeleted":"-1"}</t>
-  </si>
-  <si>
-    <t>{'publishStatus':'UnPublish'}</t>
-  </si>
-  <si>
-    <t>查询未初始化的应用</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"UnInit","isDeleted":"-1"}</t>
-  </si>
-  <si>
-    <t>{'publishStatus':'UnInit'}</t>
-  </si>
-  <si>
-    <t>查询删除状态为正常的应用</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"0"}</t>
-  </si>
-  <si>
-    <t>{'isDeleted':0}</t>
-  </si>
-  <si>
-    <t>STEP09</t>
-  </si>
-  <si>
-    <t>查询删除状态为已删除的应用</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"","publishStatus":"","isDeleted":"1"}</t>
-  </si>
-  <si>
-    <t>{'isDeleted':1}</t>
-  </si>
-  <si>
-    <t>登录运营平台，新建模板应用</t>
-  </si>
-  <si>
-    <t>获取模板code</t>
-  </si>
-  <si>
-    <t>/operation/template/tcode</t>
-  </si>
-  <si>
-    <t>正则取值</t>
-  </si>
-  <si>
-    <t>TemplateCode</t>
-  </si>
-  <si>
-    <t>^[A-Za-z0-9]+$</t>
-  </si>
-  <si>
-    <t>获取一级行业id</t>
-  </si>
-  <si>
-    <t>/operation/template/industry</t>
-  </si>
-  <si>
-    <t>FirstIndustryId</t>
-  </si>
-  <si>
-    <t>$.firstIndustryList[0].id</t>
-  </si>
-  <si>
-    <t>firstIndustryList</t>
-  </si>
-  <si>
-    <t>获取二级行业id</t>
-  </si>
-  <si>
-    <t>/operation/template/industry/${FirstIndustryId}</t>
-  </si>
-  <si>
-    <t>IndustryId</t>
-  </si>
-  <si>
-    <t>$.[0].id</t>
-  </si>
-  <si>
-    <t>{"parentId":"${FirstIndustryId}"}</t>
-  </si>
-  <si>
-    <t>获取色系id</t>
-  </si>
-  <si>
-    <t>/operation/template/color</t>
-  </si>
-  <si>
-    <t>ColorSystemName</t>
-  </si>
-  <si>
-    <t>$.[0].name</t>
-  </si>
-  <si>
-    <t>{'displayName':'蓝色系'}</t>
-  </si>
-  <si>
-    <t>创建模板</t>
-  </si>
-  <si>
-    <t>/operation/template/create</t>
-  </si>
-  <si>
-    <t>{"TemplateName":"自动化测试模板应用${timestamp}","TemplateCode":"${TemplateCode}","FirstIndustryId":"${FirstIndustryId}","IndustryId":"${IndustryId}","ColorSystemName":"${ColorSystemName}"}</t>
-  </si>
-  <si>
-    <t>查询已经创建好的模板应用</t>
-  </si>
-  <si>
-    <t>{"currentIndex":1,"pageSize":10,"templateName":"自动化测试模板应用${timestamp}","publishStatus":"","isDeleted":"-1"}</t>
-  </si>
-  <si>
-    <t>{'templateName':'自动化测试模板应用${timestamp}'}</t>
-  </si>
-  <si>
-    <t>登录运营平台，查询模块应用</t>
-  </si>
-  <si>
-    <t>查询所有模块应用第一页</t>
-  </si>
-  <si>
-    <t>/apps/v1/modules</t>
-  </si>
-  <si>
-    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
-  </si>
-  <si>
-    <t>moduleEntity</t>
-  </si>
-  <si>
-    <t>查询所有模块应用跳转指定页</t>
-  </si>
-  <si>
-    <t>{"pageindex":"5","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
-  </si>
-  <si>
-    <t>搜索指定模块应用</t>
-  </si>
-  <si>
-    <t>{"pageindex":"1","pagesize":"10","modulename":"初始化的模块应用","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
-  </si>
-  <si>
-    <t>{'id':'662618f5-fc24-4cb7-ac6d-36d1685c6faf'}</t>
-  </si>
-  <si>
-    <t>获取模块标签</t>
-  </si>
-  <si>
-    <t>/apps/v1/moduletagswhole</t>
-  </si>
-  <si>
-    <t>tagId</t>
-  </si>
-  <si>
-    <t>$.moduleTagEntity.[0].tagId</t>
-  </si>
-  <si>
-    <t>{'tagName':'901电商'}</t>
-  </si>
-  <si>
-    <t>搜索指定标签下的模块应用</t>
-  </si>
-  <si>
-    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"${tagId}","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
-  </si>
-  <si>
-    <t>{'moduleName':'mq测试模块911'}</t>
-  </si>
-  <si>
-    <t>获取模块分类</t>
-  </si>
-  <si>
-    <t>/apps/v1/modulecategorys</t>
-  </si>
-  <si>
-    <t>categoryId</t>
-  </si>
-  <si>
-    <t>$.[2].categoryId</t>
-  </si>
-  <si>
-    <t>{'name':'zf防护'}</t>
-  </si>
-  <si>
-    <t>搜索指定分类下的模块应用</t>
-  </si>
-  <si>
-    <t>{"pageindex":"1","pagesize":"10","modulename":"","tagid":"","moduleCategoryId":"${categoryId}"}</t>
-  </si>
-  <si>
-    <t>{'moduleName':'5435456'}</t>
-  </si>
-  <si>
-    <t>登陆运营平台，新建模块应用</t>
-  </si>
-  <si>
-    <t>创建模块应用</t>
-  </si>
-  <si>
-    <t>/apps/v1/addmodule/</t>
-  </si>
-  <si>
-    <t>{"moduleName":"自模${timestamp}","moduleNameSpace":"ns${timestamp}","moduleCode":"zm${timestamp}","moduleDescription":"description","moduleTagIds":["${tagId}"],"moduleCategoryId":"${categoryId}"}</t>
-  </si>
-  <si>
-    <t>moduleId</t>
-  </si>
-  <si>
-    <t>[\s\S]</t>
-  </si>
-  <si>
-    <t>正则匹配</t>
-  </si>
-  <si>
-    <t>{"pageindex":"1","pagesize":"10","modulename":"自模${timestamp}","tagid":"","moduleCategoryId":"00000000-0000-0000-0000-000000000000"}</t>
-  </si>
-  <si>
-    <t>{'modulename':'自模${timestamp}'}</t>
-  </si>
-  <si>
-    <t>登录运营平台后免登指定应用</t>
-  </si>
-  <si>
-    <t>登陆后搜索测试应用</t>
-  </si>
-  <si>
     <t>免登进测试应用的设计平台</t>
   </si>
   <si>
@@ -500,7 +758,10 @@
     <t>code</t>
   </si>
   <si>
-    <t>[^/]+(?!.*/)</t>
+    <t>testapplication/${appId}/(.+?)"}</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>通过免登进来的登录接口</t>
@@ -513,6 +774,15 @@
   </si>
   <si>
     <t>{"code":"${code}"}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>admin_token;admin_type</t>
+  </si>
+  <si>
+    <t>{'type':'Bearer'}</t>
   </si>
 </sst>
 </file>
@@ -521,8 +791,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -542,21 +812,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,6 +846,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,39 +872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,24 +887,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,9 +910,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,6 +924,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -694,7 +964,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,19 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,55 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,91 +1138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,35 +1212,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,8 +1239,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +1275,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1028,15 +1307,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1045,149 +1315,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,9 +1483,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1581,128 +1848,128 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1717,10 +1984,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q70" sqref="Q70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2209,20 +2476,20 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="57.6" spans="1:16">
-      <c r="A13" s="6"/>
+    <row r="13" ht="86.4" spans="1:17">
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="3" t="b">
+      <c r="G13" s="2" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -2234,31 +2501,32 @@
       <c r="J13" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="L13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" ht="72" spans="1:17">
-      <c r="A14" s="4">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="2" t="b">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:17">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>22</v>
@@ -2267,36 +2535,39 @@
         <v>23</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" ht="100.8" spans="1:17">
+      <c r="Q14" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" ht="72" spans="1:17">
       <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="2" t="b">
@@ -2309,27 +2580,39 @@
         <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>72</v>
+      <c r="Q15" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" ht="57.6" spans="1:17">
       <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="2" t="b">
@@ -2342,28 +2625,40 @@
         <v>23</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" ht="57.6" spans="1:17">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" ht="331.2" spans="1:17">
       <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G17" s="2" t="b">
         <v>1</v>
@@ -2375,25 +2670,28 @@
         <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="3"/>
       <c r="P17" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" ht="57.6" spans="1:17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" ht="43.2" spans="1:17">
       <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>33</v>
@@ -2408,25 +2706,33 @@
         <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" ht="57.6" spans="1:17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" ht="100.8" spans="1:17">
       <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>33</v>
@@ -2441,25 +2747,33 @@
         <v>23</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" ht="57.6" spans="1:17">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" ht="43.2" spans="1:17">
       <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>33</v>
@@ -2474,28 +2788,36 @@
         <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" ht="57.6" spans="1:17">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" ht="201.6" spans="1:17">
       <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>33</v>
+        <v>110</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="b">
         <v>1</v>
@@ -2507,28 +2829,31 @@
         <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O21" s="3"/>
       <c r="P21" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" ht="57.6" spans="1:17">
-      <c r="A22" s="6"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" ht="115.2" spans="1:17">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>33</v>
+        <v>114</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G22" s="2" t="b">
         <v>1</v>
@@ -2540,150 +2865,142 @@
         <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" ht="72" spans="1:17">
-      <c r="A23" s="4">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="Q22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" ht="57.6" spans="1:16">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2" t="b">
+      <c r="G23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" ht="57.6" spans="1:16">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" ht="72" spans="1:17">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" ht="43.2" spans="1:16">
-      <c r="A24" s="5"/>
-      <c r="D24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" ht="57.6" spans="1:17">
-      <c r="A25" s="5"/>
-      <c r="D25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" ht="86.4" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="100.8" spans="1:17">
       <c r="A26" s="5"/>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>33</v>
@@ -2698,31 +3015,25 @@
         <v>23</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" ht="43.2" spans="1:17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" ht="57.6" spans="1:17">
       <c r="A27" s="5"/>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>33</v>
@@ -2737,34 +3048,28 @@
         <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" ht="187.2" spans="1:16">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" ht="57.6" spans="1:17">
       <c r="A28" s="5"/>
       <c r="D28" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G28" s="2" t="b">
         <v>1</v>
@@ -2776,22 +3081,25 @@
         <v>23</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" ht="100.8" spans="1:17">
-      <c r="A29" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" ht="57.6" spans="1:17">
+      <c r="A29" s="5"/>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>33</v>
@@ -2806,42 +3114,31 @@
         <v>23</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" ht="72" spans="1:17">
-      <c r="A30" s="4">
-        <v>5</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" ht="57.6" spans="1:17">
+      <c r="A30" s="5"/>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>22</v>
@@ -2850,34 +3147,25 @@
         <v>23</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" ht="72" spans="1:17">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" ht="57.6" spans="1:17">
       <c r="A31" s="5"/>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>33</v>
@@ -2892,25 +3180,25 @@
         <v>23</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" ht="72" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" ht="57.6" spans="1:17">
       <c r="A32" s="5"/>
       <c r="D32" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>33</v>
@@ -2925,25 +3213,25 @@
         <v>23</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" ht="100.8" spans="1:17">
-      <c r="A33" s="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" ht="57.6" spans="1:17">
+      <c r="A33" s="6"/>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>33</v>
@@ -2958,31 +3246,39 @@
         <v>23</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" ht="43.2" spans="1:17">
-      <c r="A34" s="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" ht="72" spans="1:17">
+      <c r="A34" s="4">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>22</v>
@@ -2991,31 +3287,34 @@
         <v>23</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" ht="86.4" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" ht="43.2" spans="1:17">
       <c r="A35" s="5"/>
       <c r="D35" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>33</v>
@@ -3030,25 +3329,31 @@
         <v>23</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" ht="43.2" spans="1:17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" ht="57.6" spans="1:17">
       <c r="A36" s="5"/>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>33</v>
@@ -3063,31 +3368,31 @@
         <v>23</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" ht="57.6" spans="1:17">
-      <c r="A37" s="6"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" ht="86.4" spans="1:17">
+      <c r="A37" s="5"/>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>33</v>
@@ -3102,39 +3407,37 @@
         <v>23</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" ht="72" spans="1:17">
-      <c r="A38" s="7">
-        <v>6</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="8" t="b">
-        <v>1</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" ht="43.2" spans="1:17">
+      <c r="A38" s="5"/>
       <c r="D38" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G38" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>22</v>
@@ -3143,39 +3446,34 @@
         <v>23</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" ht="43.2" spans="1:17">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" ht="187.2" spans="1:16">
+      <c r="A39" s="5"/>
       <c r="D39" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G39" s="2" t="b">
         <v>1</v>
@@ -3187,33 +3485,22 @@
         <v>23</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>132</v>
+        <v>162</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" ht="43.2" spans="1:17">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" ht="72" spans="1:17">
+      <c r="A40" s="5"/>
       <c r="D40" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>33</v>
@@ -3228,33 +3515,34 @@
         <v>23</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" ht="187.2" spans="1:17">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" ht="201.6" spans="1:17">
+      <c r="A41" s="5"/>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>21</v>
@@ -3269,36 +3557,25 @@
         <v>23</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O41" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" ht="100.8" spans="1:17">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" ht="144" spans="1:17">
+      <c r="A42" s="5"/>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>33</v>
@@ -3313,222 +3590,1133 @@
         <v>23</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" ht="72" spans="1:16">
-      <c r="A43" s="4">
-        <v>7</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="2" t="b">
-        <v>0</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" ht="86.4" spans="1:17">
+      <c r="A43" s="5"/>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" ht="57.6" spans="1:16">
+      <c r="A44" s="6"/>
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" ht="72" spans="1:17">
+      <c r="A45" s="4">
+        <v>5</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" ht="43.2" spans="1:16">
-      <c r="A44" s="5"/>
-      <c r="D44" s="2" t="s">
+      <c r="P45" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="72" spans="1:17">
+      <c r="A46" s="5"/>
+      <c r="D46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="2" t="s">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" ht="72" spans="1:17">
+      <c r="A47" s="5"/>
+      <c r="D47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" ht="100.8" spans="1:17">
+      <c r="A48" s="5"/>
+      <c r="D48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" ht="43.2" spans="1:17">
+      <c r="A49" s="5"/>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" ht="86.4" spans="1:17">
+      <c r="A50" s="5"/>
+      <c r="D50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" ht="43.2" spans="1:17">
+      <c r="A51" s="5"/>
+      <c r="D51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" ht="57.6" spans="1:17">
+      <c r="A52" s="6"/>
+      <c r="D52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" ht="72" spans="1:17">
+      <c r="A53" s="7">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" ht="43.2" spans="1:17">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" ht="43.2" spans="1:17">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" ht="100.8" spans="1:17">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" ht="43.2" spans="1:17">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" ht="72" spans="1:17">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" ht="72" spans="1:17">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" ht="100.8" spans="1:17">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" ht="43.2" spans="1:17">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" ht="129.6" spans="1:17">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" ht="57.6" spans="1:17">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G63" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" ht="57.6" spans="1:17">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" ht="43.2" spans="1:17">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" ht="187.2" spans="1:17">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" ht="72" spans="1:17">
+      <c r="A67" s="4">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" ht="43.2" spans="1:17">
+      <c r="A68" s="5"/>
+      <c r="D68" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M44" s="2" t="s">
+      <c r="K68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N68" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" ht="57.6" spans="1:16">
-      <c r="A45" s="5"/>
-      <c r="D45" s="2" t="s">
+      <c r="O68" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" ht="57.6" spans="1:17">
+      <c r="A69" s="5"/>
+      <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E69" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M45" s="2" t="s">
+      <c r="G69" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" ht="57.6" spans="1:16">
-      <c r="A46" s="6"/>
-      <c r="D46" s="2" t="s">
+      <c r="N69" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" ht="57.6" spans="1:17">
+      <c r="A70" s="6"/>
+      <c r="D70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="3" t="b">
+      <c r="G70" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3" t="s">
+      <c r="H70" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="2" t="s">
+      <c r="N70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="O70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>40</v>
+      <c r="P70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="A30:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A10:A24"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A66"/>
+    <mergeCell ref="A67:A70"/>
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B22"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B10:B24"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B66"/>
+    <mergeCell ref="B67:B70"/>
     <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C23:C29"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C10:C24"/>
+    <mergeCell ref="C25:C33"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="C53:C66"/>
+    <mergeCell ref="C67:C70"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F9 F10 F11 F12 F13 F14 F15 F16 F17 F23 F24 F29 F30 F31 F32 F33 F34 F38 F39 F40 F41 F42 F43 F44 F45 F46 F7:F8 F18:F22 F25:F28 F35:F37 F47:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P21 P22 P23 P24 P25 P26 P27 P28 P29 P30 P31 P32 P33 P34 P35 P39 P40 P41 P42 P43 P44 P45 P46 P47 P48 P49 P50 P51 P52 P53 P54 P55 P56 P57 P58 P59 P60 P61 P62 P63 P64 P65 P66 P67 P68 P69 P70 P19:P20 P36:P38 P71:P1048576">
+      <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M10 M11 M12 M13 M14 M15 M16 M17 M18 M21 M22 M23 M24 M25 M26 M27 M28 M34 M35 M40 M41 M42 M43 M44 M45 M46 M47 M48 M49 M53 M54 M55 M56 M57 M58 M59 M60 M61 M62 M63 M64 M65 M66 M67 M68 M69 M70 M19:M20 M36:M39 M50:M52 M71:M1048576">
+      <formula1>"json取值,正则取值,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F21 F22 F23 F24 F25 F26 F27 F28 F34 F35 F40 F41 F42 F43 F44 F45 F46 F47 F48 F49 F53 F54 F55 F56 F57 F58 F59 F60 F61 F62 F63 F64 F65 F66 F67 F68 F69 F70 F7:F8 F19:F20 F29:F33 F36:F39 F50:F52 F71:F1048576">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G9 G10 G11 G12 G13 G14 G15 G16 G23 G24 C29 G29 C30 G30 C31 G31 C32 G32 C33 G33 C34 G34 C35 C36 C37 C38 G38 G39 C40 G40 G41 G42 G43 G44 G45 G46 C2:C28 C41:C42 C43:C46 C47:C1048576 G5:G6 G7:G8 G17:G22 G25:G28 G35:G37 G47:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G3 G4 G9 G10 G11 G12 C13 G13 C14 G14 C15 G15 C16 G16 C17 G17 C18 G18 C19 C20 C21 G21 C22 G22 C23 G23 G24 G25 G26 G27 G34 G35 C40 G40 C41 G41 C42 G42 C43 G43 C44 G44 C45 G45 C46 G46 C47 G47 C48 G48 C49 G49 C50 C51 C52 C53 G53 G54 C55 G55 C56 G56 C57 G57 C58 G58 C59 G59 C60 G60 C61 G61 C62 G62 C63 G63 C64 G64 C65 G65 C66 G66 G67 G68 G69 G70 C2:C12 C24:C39 C67:C70 C71:C1048576 G5:G6 G7:G8 G19:G20 G28:G33 G36:G39 G50:G52 G71:G1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H9 H10 H11 H14 H15 H16 H17 H23 H24 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H7:H8 H12:H13 H18:H22 H25:H28 H43:H46 H47:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5 H6 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H21 H22 H23 H24 H25 H26 H27 H28 H34 H35 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57 H58 H59 H60 H61 H62 H63 H64 H65 H66 H67 H68 H7:H8 H19:H20 H29:H33 H36:H39 H69:H70 H71:H1048576">
       <formula1>"Operation,Admin,Design"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M3 M4 M5 M10 M11 M12 M13 M14 M15 M16 M17 M23 M24 M29 M30 M31 M32 M33 M34 M38 M39 M40 M41 M42 M43 M44 M45 M46 M25:M28 M35:M37 M47:M1048576">
-      <formula1>"json取值,正则取值,无"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I9 I10 I11 I14 I15 I16 I17 I23 I24 I29 I30 I31 I32 I33 I34 I35 I36 I37 I38 I39 I40 I41 I42 I43 I7:I8 I12:I13 I18:I22 I25:I28 I44:I46 I47:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I21 I22 I23 I24 I25 I26 I27 I28 I34 I35 I40 I41 I42 I43 I44 I45 I46 I47 I48 I49 I50 I51 I52 I53 I54 I55 I56 I57 I58 I59 I60 I61 I62 I63 I64 I65 I66 I67 I68 I7:I8 I19:I20 I29:I33 I36:I39 I69:I70 I71:I1048576">
       <formula1>"Test,Aliyun,tianyiyun,tengxunyun,renshe"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2 P3 P4 P5 P6 P7 P8 P9 P10 P11 P12 P13 P14 P15 P16 P17 P18 P19 P20 P21 P22 P23 P24 P29 P30 P31 P32 P33 P34 P35 P36 P37 P38 P39 P40 P41 P42 P43 P44 P45 P46 P25:P28 P47:P1048576">
-      <formula1>"无,json键是否存在,json键值对,正则匹配"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
